--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_196.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_196.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32525-d78027-Reviews-Days_Inn_Los_Angeles_LAX_Airport_Venice_Beach_Marina_Del_Ray-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>399</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Los-Angeles-LAXVeniceBchMarina-DelRay.h14532.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_196.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_196.xlsx
@@ -4873,7 +4873,7 @@
         <v>4775</v>
       </c>
       <c r="B2" t="n">
-        <v>135546</v>
+        <v>166465</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4948,7 +4948,7 @@
         <v>4775</v>
       </c>
       <c r="B3" t="n">
-        <v>135547</v>
+        <v>166466</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -5019,7 +5019,7 @@
         <v>4775</v>
       </c>
       <c r="B4" t="n">
-        <v>135548</v>
+        <v>166467</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -5090,7 +5090,7 @@
         <v>4775</v>
       </c>
       <c r="B5" t="n">
-        <v>135549</v>
+        <v>166468</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -5161,7 +5161,7 @@
         <v>4775</v>
       </c>
       <c r="B6" t="n">
-        <v>135550</v>
+        <v>166469</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -5303,7 +5303,7 @@
         <v>4775</v>
       </c>
       <c r="B8" t="n">
-        <v>135551</v>
+        <v>166470</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -5374,7 +5374,7 @@
         <v>4775</v>
       </c>
       <c r="B9" t="n">
-        <v>135552</v>
+        <v>166471</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
@@ -5445,7 +5445,7 @@
         <v>4775</v>
       </c>
       <c r="B10" t="n">
-        <v>135553</v>
+        <v>166472</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
@@ -5512,7 +5512,7 @@
         <v>4775</v>
       </c>
       <c r="B11" t="n">
-        <v>135554</v>
+        <v>166473</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -5583,7 +5583,7 @@
         <v>4775</v>
       </c>
       <c r="B12" t="n">
-        <v>135555</v>
+        <v>166474</v>
       </c>
       <c r="C12" t="s">
         <v>119</v>
@@ -5645,7 +5645,7 @@
         <v>4775</v>
       </c>
       <c r="B13" t="n">
-        <v>135556</v>
+        <v>166475</v>
       </c>
       <c r="C13" t="s">
         <v>122</v>
@@ -5716,7 +5716,7 @@
         <v>4775</v>
       </c>
       <c r="B14" t="n">
-        <v>135557</v>
+        <v>166476</v>
       </c>
       <c r="C14" t="s">
         <v>129</v>
@@ -5777,7 +5777,7 @@
         <v>4775</v>
       </c>
       <c r="B15" t="n">
-        <v>135558</v>
+        <v>166477</v>
       </c>
       <c r="C15" t="s">
         <v>136</v>
@@ -5848,7 +5848,7 @@
         <v>4775</v>
       </c>
       <c r="B16" t="n">
-        <v>135559</v>
+        <v>166478</v>
       </c>
       <c r="C16" t="s">
         <v>142</v>
@@ -5980,7 +5980,7 @@
         <v>4775</v>
       </c>
       <c r="B18" t="n">
-        <v>135560</v>
+        <v>166479</v>
       </c>
       <c r="C18" t="s">
         <v>156</v>
@@ -6051,7 +6051,7 @@
         <v>4775</v>
       </c>
       <c r="B19" t="n">
-        <v>135561</v>
+        <v>166480</v>
       </c>
       <c r="C19" t="s">
         <v>162</v>
@@ -6122,7 +6122,7 @@
         <v>4775</v>
       </c>
       <c r="B20" t="n">
-        <v>135562</v>
+        <v>166481</v>
       </c>
       <c r="C20" t="s">
         <v>168</v>
@@ -6187,7 +6187,7 @@
         <v>4775</v>
       </c>
       <c r="B21" t="n">
-        <v>135563</v>
+        <v>166482</v>
       </c>
       <c r="C21" t="s">
         <v>175</v>
@@ -6248,7 +6248,7 @@
         <v>4775</v>
       </c>
       <c r="B22" t="n">
-        <v>135564</v>
+        <v>166483</v>
       </c>
       <c r="C22" t="s">
         <v>182</v>
@@ -6319,7 +6319,7 @@
         <v>4775</v>
       </c>
       <c r="B23" t="n">
-        <v>135565</v>
+        <v>166484</v>
       </c>
       <c r="C23" t="s">
         <v>188</v>
@@ -6390,7 +6390,7 @@
         <v>4775</v>
       </c>
       <c r="B24" t="n">
-        <v>135566</v>
+        <v>166485</v>
       </c>
       <c r="C24" t="s">
         <v>194</v>
@@ -6461,7 +6461,7 @@
         <v>4775</v>
       </c>
       <c r="B25" t="n">
-        <v>135567</v>
+        <v>135549</v>
       </c>
       <c r="C25" t="s">
         <v>200</v>
@@ -6532,7 +6532,7 @@
         <v>4775</v>
       </c>
       <c r="B26" t="n">
-        <v>135568</v>
+        <v>166486</v>
       </c>
       <c r="C26" t="s">
         <v>205</v>
@@ -6597,7 +6597,7 @@
         <v>4775</v>
       </c>
       <c r="B27" t="n">
-        <v>135569</v>
+        <v>166487</v>
       </c>
       <c r="C27" t="s">
         <v>212</v>
@@ -6668,7 +6668,7 @@
         <v>4775</v>
       </c>
       <c r="B28" t="n">
-        <v>135570</v>
+        <v>166488</v>
       </c>
       <c r="C28" t="s">
         <v>217</v>
@@ -6739,7 +6739,7 @@
         <v>4775</v>
       </c>
       <c r="B29" t="n">
-        <v>135571</v>
+        <v>166489</v>
       </c>
       <c r="C29" t="s">
         <v>224</v>
@@ -6800,7 +6800,7 @@
         <v>4775</v>
       </c>
       <c r="B30" t="n">
-        <v>135572</v>
+        <v>166490</v>
       </c>
       <c r="C30" t="s">
         <v>231</v>
@@ -6871,7 +6871,7 @@
         <v>4775</v>
       </c>
       <c r="B31" t="n">
-        <v>135573</v>
+        <v>166491</v>
       </c>
       <c r="C31" t="s">
         <v>237</v>
@@ -7013,7 +7013,7 @@
         <v>4775</v>
       </c>
       <c r="B33" t="n">
-        <v>135574</v>
+        <v>166492</v>
       </c>
       <c r="C33" t="s">
         <v>249</v>
@@ -7084,7 +7084,7 @@
         <v>4775</v>
       </c>
       <c r="B34" t="n">
-        <v>135575</v>
+        <v>166493</v>
       </c>
       <c r="C34" t="s">
         <v>254</v>
@@ -7155,7 +7155,7 @@
         <v>4775</v>
       </c>
       <c r="B35" t="n">
-        <v>135576</v>
+        <v>166494</v>
       </c>
       <c r="C35" t="s">
         <v>260</v>
@@ -7226,7 +7226,7 @@
         <v>4775</v>
       </c>
       <c r="B36" t="n">
-        <v>135577</v>
+        <v>166495</v>
       </c>
       <c r="C36" t="s">
         <v>266</v>
@@ -7297,7 +7297,7 @@
         <v>4775</v>
       </c>
       <c r="B37" t="n">
-        <v>135578</v>
+        <v>166496</v>
       </c>
       <c r="C37" t="s">
         <v>272</v>
@@ -7368,7 +7368,7 @@
         <v>4775</v>
       </c>
       <c r="B38" t="n">
-        <v>135579</v>
+        <v>166497</v>
       </c>
       <c r="C38" t="s">
         <v>277</v>
@@ -7439,7 +7439,7 @@
         <v>4775</v>
       </c>
       <c r="B39" t="n">
-        <v>135580</v>
+        <v>166498</v>
       </c>
       <c r="C39" t="s">
         <v>283</v>
@@ -7510,7 +7510,7 @@
         <v>4775</v>
       </c>
       <c r="B40" t="n">
-        <v>135581</v>
+        <v>166499</v>
       </c>
       <c r="C40" t="s">
         <v>290</v>
@@ -7581,7 +7581,7 @@
         <v>4775</v>
       </c>
       <c r="B41" t="n">
-        <v>135582</v>
+        <v>166500</v>
       </c>
       <c r="C41" t="s">
         <v>296</v>
@@ -7652,7 +7652,7 @@
         <v>4775</v>
       </c>
       <c r="B42" t="n">
-        <v>135583</v>
+        <v>166501</v>
       </c>
       <c r="C42" t="s">
         <v>302</v>
@@ -7723,7 +7723,7 @@
         <v>4775</v>
       </c>
       <c r="B43" t="n">
-        <v>135584</v>
+        <v>166502</v>
       </c>
       <c r="C43" t="s">
         <v>308</v>
@@ -7794,7 +7794,7 @@
         <v>4775</v>
       </c>
       <c r="B44" t="n">
-        <v>135585</v>
+        <v>166503</v>
       </c>
       <c r="C44" t="s">
         <v>314</v>
@@ -7865,7 +7865,7 @@
         <v>4775</v>
       </c>
       <c r="B45" t="n">
-        <v>135586</v>
+        <v>166504</v>
       </c>
       <c r="C45" t="s">
         <v>321</v>
@@ -7936,7 +7936,7 @@
         <v>4775</v>
       </c>
       <c r="B46" t="n">
-        <v>135587</v>
+        <v>166505</v>
       </c>
       <c r="C46" t="s">
         <v>327</v>
@@ -8007,7 +8007,7 @@
         <v>4775</v>
       </c>
       <c r="B47" t="n">
-        <v>135588</v>
+        <v>166506</v>
       </c>
       <c r="C47" t="s">
         <v>333</v>
@@ -8082,7 +8082,7 @@
         <v>4775</v>
       </c>
       <c r="B48" t="n">
-        <v>135589</v>
+        <v>166507</v>
       </c>
       <c r="C48" t="s">
         <v>342</v>
@@ -8143,7 +8143,7 @@
         <v>4775</v>
       </c>
       <c r="B49" t="n">
-        <v>135590</v>
+        <v>166508</v>
       </c>
       <c r="C49" t="s">
         <v>348</v>
@@ -8218,7 +8218,7 @@
         <v>4775</v>
       </c>
       <c r="B50" t="n">
-        <v>135591</v>
+        <v>166509</v>
       </c>
       <c r="C50" t="s">
         <v>356</v>
@@ -8289,7 +8289,7 @@
         <v>4775</v>
       </c>
       <c r="B51" t="n">
-        <v>135592</v>
+        <v>166510</v>
       </c>
       <c r="C51" t="s">
         <v>363</v>
@@ -8360,7 +8360,7 @@
         <v>4775</v>
       </c>
       <c r="B52" t="n">
-        <v>135593</v>
+        <v>166511</v>
       </c>
       <c r="C52" t="s">
         <v>369</v>
@@ -8502,7 +8502,7 @@
         <v>4775</v>
       </c>
       <c r="B54" t="n">
-        <v>135594</v>
+        <v>166512</v>
       </c>
       <c r="C54" t="s">
         <v>382</v>
@@ -8573,7 +8573,7 @@
         <v>4775</v>
       </c>
       <c r="B55" t="n">
-        <v>135595</v>
+        <v>166513</v>
       </c>
       <c r="C55" t="s">
         <v>388</v>
@@ -8644,7 +8644,7 @@
         <v>4775</v>
       </c>
       <c r="B56" t="n">
-        <v>135566</v>
+        <v>135549</v>
       </c>
       <c r="C56" t="s">
         <v>200</v>
@@ -8715,7 +8715,7 @@
         <v>4775</v>
       </c>
       <c r="B57" t="n">
-        <v>135596</v>
+        <v>166514</v>
       </c>
       <c r="C57" t="s">
         <v>400</v>
@@ -8776,7 +8776,7 @@
         <v>4775</v>
       </c>
       <c r="B58" t="n">
-        <v>135597</v>
+        <v>166515</v>
       </c>
       <c r="C58" t="s">
         <v>406</v>
@@ -8837,7 +8837,7 @@
         <v>4775</v>
       </c>
       <c r="B59" t="n">
-        <v>135598</v>
+        <v>166516</v>
       </c>
       <c r="C59" t="s">
         <v>412</v>
@@ -8904,7 +8904,7 @@
         <v>4775</v>
       </c>
       <c r="B60" t="n">
-        <v>135599</v>
+        <v>166517</v>
       </c>
       <c r="C60" t="s">
         <v>418</v>
@@ -8975,7 +8975,7 @@
         <v>4775</v>
       </c>
       <c r="B61" t="n">
-        <v>135600</v>
+        <v>166518</v>
       </c>
       <c r="C61" t="s">
         <v>425</v>
@@ -9046,7 +9046,7 @@
         <v>4775</v>
       </c>
       <c r="B62" t="n">
-        <v>135601</v>
+        <v>166519</v>
       </c>
       <c r="C62" t="s">
         <v>431</v>
@@ -9182,7 +9182,7 @@
         <v>4775</v>
       </c>
       <c r="B64" t="n">
-        <v>135602</v>
+        <v>166520</v>
       </c>
       <c r="C64" t="s">
         <v>446</v>
@@ -9324,7 +9324,7 @@
         <v>4775</v>
       </c>
       <c r="B66" t="n">
-        <v>135603</v>
+        <v>166521</v>
       </c>
       <c r="C66" t="s">
         <v>457</v>
@@ -9466,7 +9466,7 @@
         <v>4775</v>
       </c>
       <c r="B68" t="n">
-        <v>135604</v>
+        <v>166522</v>
       </c>
       <c r="C68" t="s">
         <v>468</v>
@@ -9537,7 +9537,7 @@
         <v>4775</v>
       </c>
       <c r="B69" t="n">
-        <v>135605</v>
+        <v>166523</v>
       </c>
       <c r="C69" t="s">
         <v>474</v>
@@ -9594,7 +9594,7 @@
         <v>4775</v>
       </c>
       <c r="B70" t="n">
-        <v>135606</v>
+        <v>166524</v>
       </c>
       <c r="C70" t="s">
         <v>481</v>
@@ -9665,7 +9665,7 @@
         <v>4775</v>
       </c>
       <c r="B71" t="n">
-        <v>135607</v>
+        <v>166525</v>
       </c>
       <c r="C71" t="s">
         <v>488</v>
@@ -9730,7 +9730,7 @@
         <v>4775</v>
       </c>
       <c r="B72" t="n">
-        <v>135608</v>
+        <v>166526</v>
       </c>
       <c r="C72" t="s">
         <v>494</v>
@@ -9791,7 +9791,7 @@
         <v>4775</v>
       </c>
       <c r="B73" t="n">
-        <v>135609</v>
+        <v>166527</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
@@ -9929,7 +9929,7 @@
         <v>4775</v>
       </c>
       <c r="B75" t="n">
-        <v>135610</v>
+        <v>166528</v>
       </c>
       <c r="C75" t="s">
         <v>513</v>
@@ -10071,7 +10071,7 @@
         <v>4775</v>
       </c>
       <c r="B77" t="n">
-        <v>135611</v>
+        <v>166529</v>
       </c>
       <c r="C77" t="s">
         <v>525</v>
@@ -10132,7 +10132,7 @@
         <v>4775</v>
       </c>
       <c r="B78" t="n">
-        <v>135612</v>
+        <v>166530</v>
       </c>
       <c r="C78" t="s">
         <v>532</v>
@@ -10203,7 +10203,7 @@
         <v>4775</v>
       </c>
       <c r="B79" t="n">
-        <v>135613</v>
+        <v>166531</v>
       </c>
       <c r="C79" t="s">
         <v>538</v>
@@ -10274,7 +10274,7 @@
         <v>4775</v>
       </c>
       <c r="B80" t="n">
-        <v>135614</v>
+        <v>166532</v>
       </c>
       <c r="C80" t="s">
         <v>545</v>
@@ -10345,7 +10345,7 @@
         <v>4775</v>
       </c>
       <c r="B81" t="n">
-        <v>135615</v>
+        <v>166533</v>
       </c>
       <c r="C81" t="s">
         <v>552</v>
@@ -10416,7 +10416,7 @@
         <v>4775</v>
       </c>
       <c r="B82" t="n">
-        <v>135616</v>
+        <v>166534</v>
       </c>
       <c r="C82" t="s">
         <v>558</v>
@@ -10477,7 +10477,7 @@
         <v>4775</v>
       </c>
       <c r="B83" t="n">
-        <v>135617</v>
+        <v>166535</v>
       </c>
       <c r="C83" t="s">
         <v>564</v>
@@ -10542,7 +10542,7 @@
         <v>4775</v>
       </c>
       <c r="B84" t="n">
-        <v>135618</v>
+        <v>166536</v>
       </c>
       <c r="C84" t="s">
         <v>572</v>
@@ -10613,7 +10613,7 @@
         <v>4775</v>
       </c>
       <c r="B85" t="n">
-        <v>135619</v>
+        <v>166537</v>
       </c>
       <c r="C85" t="s">
         <v>578</v>
@@ -10684,7 +10684,7 @@
         <v>4775</v>
       </c>
       <c r="B86" t="n">
-        <v>135620</v>
+        <v>166538</v>
       </c>
       <c r="C86" t="s">
         <v>584</v>
@@ -10893,7 +10893,7 @@
         <v>4775</v>
       </c>
       <c r="B89" t="n">
-        <v>135621</v>
+        <v>166539</v>
       </c>
       <c r="C89" t="s">
         <v>605</v>
@@ -10964,7 +10964,7 @@
         <v>4775</v>
       </c>
       <c r="B90" t="n">
-        <v>135622</v>
+        <v>166540</v>
       </c>
       <c r="C90" t="s">
         <v>611</v>
@@ -11248,7 +11248,7 @@
         <v>4775</v>
       </c>
       <c r="B94" t="n">
-        <v>135623</v>
+        <v>166541</v>
       </c>
       <c r="C94" t="s">
         <v>635</v>
@@ -11319,7 +11319,7 @@
         <v>4775</v>
       </c>
       <c r="B95" t="n">
-        <v>135624</v>
+        <v>166542</v>
       </c>
       <c r="C95" t="s">
         <v>641</v>
@@ -11390,7 +11390,7 @@
         <v>4775</v>
       </c>
       <c r="B96" t="n">
-        <v>135625</v>
+        <v>166543</v>
       </c>
       <c r="C96" t="s">
         <v>648</v>
@@ -11461,7 +11461,7 @@
         <v>4775</v>
       </c>
       <c r="B97" t="n">
-        <v>135626</v>
+        <v>166544</v>
       </c>
       <c r="C97" t="s">
         <v>654</v>
@@ -11599,7 +11599,7 @@
         <v>4775</v>
       </c>
       <c r="B99" t="n">
-        <v>135627</v>
+        <v>166545</v>
       </c>
       <c r="C99" t="s">
         <v>668</v>
@@ -11731,7 +11731,7 @@
         <v>4775</v>
       </c>
       <c r="B101" t="n">
-        <v>135628</v>
+        <v>166546</v>
       </c>
       <c r="C101" t="s">
         <v>680</v>
@@ -11794,7 +11794,7 @@
         <v>4775</v>
       </c>
       <c r="B102" t="n">
-        <v>135629</v>
+        <v>166547</v>
       </c>
       <c r="C102" t="s">
         <v>686</v>
@@ -11861,7 +11861,7 @@
         <v>4775</v>
       </c>
       <c r="B103" t="n">
-        <v>135630</v>
+        <v>166548</v>
       </c>
       <c r="C103" t="s">
         <v>693</v>
@@ -11926,7 +11926,7 @@
         <v>4775</v>
       </c>
       <c r="B104" t="n">
-        <v>135631</v>
+        <v>166549</v>
       </c>
       <c r="C104" t="s">
         <v>700</v>
@@ -12129,7 +12129,7 @@
         <v>4775</v>
       </c>
       <c r="B107" t="n">
-        <v>135632</v>
+        <v>166550</v>
       </c>
       <c r="C107" t="s">
         <v>719</v>
@@ -12200,7 +12200,7 @@
         <v>4775</v>
       </c>
       <c r="B108" t="n">
-        <v>135633</v>
+        <v>166551</v>
       </c>
       <c r="C108" t="s">
         <v>725</v>
@@ -12271,7 +12271,7 @@
         <v>4775</v>
       </c>
       <c r="B109" t="n">
-        <v>135634</v>
+        <v>166552</v>
       </c>
       <c r="C109" t="s">
         <v>731</v>
@@ -12338,7 +12338,7 @@
         <v>4775</v>
       </c>
       <c r="B110" t="n">
-        <v>135635</v>
+        <v>166553</v>
       </c>
       <c r="C110" t="s">
         <v>737</v>
@@ -12403,7 +12403,7 @@
         <v>4775</v>
       </c>
       <c r="B111" t="n">
-        <v>135636</v>
+        <v>166554</v>
       </c>
       <c r="C111" t="s">
         <v>745</v>
@@ -12607,7 +12607,7 @@
         <v>4775</v>
       </c>
       <c r="B114" t="n">
-        <v>135637</v>
+        <v>166555</v>
       </c>
       <c r="C114" t="s">
         <v>763</v>
@@ -12678,7 +12678,7 @@
         <v>4775</v>
       </c>
       <c r="B115" t="n">
-        <v>135638</v>
+        <v>166556</v>
       </c>
       <c r="C115" t="s">
         <v>768</v>
@@ -12810,7 +12810,7 @@
         <v>4775</v>
       </c>
       <c r="B117" t="n">
-        <v>135639</v>
+        <v>166557</v>
       </c>
       <c r="C117" t="s">
         <v>780</v>
@@ -12950,7 +12950,7 @@
         <v>4775</v>
       </c>
       <c r="B119" t="n">
-        <v>135640</v>
+        <v>166558</v>
       </c>
       <c r="C119" t="s">
         <v>793</v>
@@ -13021,7 +13021,7 @@
         <v>4775</v>
       </c>
       <c r="B120" t="n">
-        <v>135641</v>
+        <v>166559</v>
       </c>
       <c r="C120" t="s">
         <v>800</v>
@@ -13088,7 +13088,7 @@
         <v>4775</v>
       </c>
       <c r="B121" t="n">
-        <v>135642</v>
+        <v>166560</v>
       </c>
       <c r="C121" t="s">
         <v>808</v>
@@ -13220,7 +13220,7 @@
         <v>4775</v>
       </c>
       <c r="B123" t="n">
-        <v>135643</v>
+        <v>166561</v>
       </c>
       <c r="C123" t="s">
         <v>822</v>
@@ -13291,7 +13291,7 @@
         <v>4775</v>
       </c>
       <c r="B124" t="n">
-        <v>135644</v>
+        <v>166562</v>
       </c>
       <c r="C124" t="s">
         <v>830</v>
@@ -13362,7 +13362,7 @@
         <v>4775</v>
       </c>
       <c r="B125" t="n">
-        <v>135645</v>
+        <v>166563</v>
       </c>
       <c r="C125" t="s">
         <v>836</v>
@@ -13423,7 +13423,7 @@
         <v>4775</v>
       </c>
       <c r="B126" t="n">
-        <v>135646</v>
+        <v>166564</v>
       </c>
       <c r="C126" t="s">
         <v>842</v>
@@ -13494,7 +13494,7 @@
         <v>4775</v>
       </c>
       <c r="B127" t="n">
-        <v>135647</v>
+        <v>166565</v>
       </c>
       <c r="C127" t="s">
         <v>848</v>
@@ -13565,7 +13565,7 @@
         <v>4775</v>
       </c>
       <c r="B128" t="n">
-        <v>135648</v>
+        <v>166566</v>
       </c>
       <c r="C128" t="s">
         <v>854</v>
@@ -13622,7 +13622,7 @@
         <v>4775</v>
       </c>
       <c r="B129" t="n">
-        <v>135649</v>
+        <v>166567</v>
       </c>
       <c r="C129" t="s">
         <v>860</v>
@@ -13693,7 +13693,7 @@
         <v>4775</v>
       </c>
       <c r="B130" t="n">
-        <v>135650</v>
+        <v>166568</v>
       </c>
       <c r="C130" t="s">
         <v>866</v>
@@ -13821,7 +13821,7 @@
         <v>4775</v>
       </c>
       <c r="B132" t="n">
-        <v>135651</v>
+        <v>166569</v>
       </c>
       <c r="C132" t="s">
         <v>880</v>
@@ -13890,7 +13890,7 @@
         <v>4775</v>
       </c>
       <c r="B133" t="n">
-        <v>135652</v>
+        <v>166570</v>
       </c>
       <c r="C133" t="s">
         <v>886</v>
@@ -14022,7 +14022,7 @@
         <v>4775</v>
       </c>
       <c r="B135" t="n">
-        <v>135653</v>
+        <v>166571</v>
       </c>
       <c r="C135" t="s">
         <v>900</v>
@@ -14160,7 +14160,7 @@
         <v>4775</v>
       </c>
       <c r="B137" t="n">
-        <v>135654</v>
+        <v>166572</v>
       </c>
       <c r="C137" t="s">
         <v>914</v>
@@ -14298,7 +14298,7 @@
         <v>4775</v>
       </c>
       <c r="B139" t="n">
-        <v>135655</v>
+        <v>166573</v>
       </c>
       <c r="C139" t="s">
         <v>927</v>
@@ -14436,7 +14436,7 @@
         <v>4775</v>
       </c>
       <c r="B141" t="n">
-        <v>135656</v>
+        <v>166574</v>
       </c>
       <c r="C141" t="s">
         <v>939</v>
@@ -14507,7 +14507,7 @@
         <v>4775</v>
       </c>
       <c r="B142" t="n">
-        <v>135657</v>
+        <v>166575</v>
       </c>
       <c r="C142" t="s">
         <v>945</v>
@@ -14637,7 +14637,7 @@
         <v>4775</v>
       </c>
       <c r="B144" t="n">
-        <v>135658</v>
+        <v>166576</v>
       </c>
       <c r="C144" t="s">
         <v>959</v>
@@ -14704,7 +14704,7 @@
         <v>4775</v>
       </c>
       <c r="B145" t="n">
-        <v>135659</v>
+        <v>166577</v>
       </c>
       <c r="C145" t="s">
         <v>965</v>
@@ -14775,7 +14775,7 @@
         <v>4775</v>
       </c>
       <c r="B146" t="n">
-        <v>135660</v>
+        <v>166578</v>
       </c>
       <c r="C146" t="s">
         <v>972</v>
@@ -15049,7 +15049,7 @@
         <v>4775</v>
       </c>
       <c r="B150" t="n">
-        <v>135661</v>
+        <v>166579</v>
       </c>
       <c r="C150" t="s">
         <v>998</v>
@@ -15120,7 +15120,7 @@
         <v>4775</v>
       </c>
       <c r="B151" t="n">
-        <v>135662</v>
+        <v>166580</v>
       </c>
       <c r="C151" t="s">
         <v>1006</v>
@@ -15333,7 +15333,7 @@
         <v>4775</v>
       </c>
       <c r="B154" t="n">
-        <v>135663</v>
+        <v>166581</v>
       </c>
       <c r="C154" t="s">
         <v>1026</v>
@@ -15536,7 +15536,7 @@
         <v>4775</v>
       </c>
       <c r="B157" t="n">
-        <v>135664</v>
+        <v>166582</v>
       </c>
       <c r="C157" t="s">
         <v>1046</v>
@@ -15607,7 +15607,7 @@
         <v>4775</v>
       </c>
       <c r="B158" t="n">
-        <v>135665</v>
+        <v>166583</v>
       </c>
       <c r="C158" t="s">
         <v>1052</v>
@@ -15674,7 +15674,7 @@
         <v>4775</v>
       </c>
       <c r="B159" t="n">
-        <v>135666</v>
+        <v>166584</v>
       </c>
       <c r="C159" t="s">
         <v>1058</v>
@@ -15745,7 +15745,7 @@
         <v>4775</v>
       </c>
       <c r="B160" t="n">
-        <v>135667</v>
+        <v>166585</v>
       </c>
       <c r="C160" t="s">
         <v>1065</v>
@@ -15887,7 +15887,7 @@
         <v>4775</v>
       </c>
       <c r="B162" t="n">
-        <v>135668</v>
+        <v>166586</v>
       </c>
       <c r="C162" t="s">
         <v>1078</v>
@@ -16171,7 +16171,7 @@
         <v>4775</v>
       </c>
       <c r="B166" t="n">
-        <v>135669</v>
+        <v>166587</v>
       </c>
       <c r="C166" t="s">
         <v>1103</v>
@@ -16242,7 +16242,7 @@
         <v>4775</v>
       </c>
       <c r="B167" t="n">
-        <v>135670</v>
+        <v>166588</v>
       </c>
       <c r="C167" t="s">
         <v>1109</v>
@@ -16309,7 +16309,7 @@
         <v>4775</v>
       </c>
       <c r="B168" t="n">
-        <v>135671</v>
+        <v>166589</v>
       </c>
       <c r="C168" t="s">
         <v>1115</v>
@@ -16451,7 +16451,7 @@
         <v>4775</v>
       </c>
       <c r="B170" t="n">
-        <v>135672</v>
+        <v>166590</v>
       </c>
       <c r="C170" t="s">
         <v>1129</v>
@@ -16584,7 +16584,7 @@
         <v>4775</v>
       </c>
       <c r="B172" t="n">
-        <v>135673</v>
+        <v>166591</v>
       </c>
       <c r="C172" t="s">
         <v>1141</v>
@@ -16651,7 +16651,7 @@
         <v>4775</v>
       </c>
       <c r="B173" t="n">
-        <v>135674</v>
+        <v>166592</v>
       </c>
       <c r="C173" t="s">
         <v>1148</v>
@@ -16864,7 +16864,7 @@
         <v>4775</v>
       </c>
       <c r="B176" t="n">
-        <v>135675</v>
+        <v>166593</v>
       </c>
       <c r="C176" t="s">
         <v>1168</v>
@@ -16931,7 +16931,7 @@
         <v>4775</v>
       </c>
       <c r="B177" t="n">
-        <v>135676</v>
+        <v>166594</v>
       </c>
       <c r="C177" t="s">
         <v>1175</v>
@@ -17002,7 +17002,7 @@
         <v>4775</v>
       </c>
       <c r="B178" t="n">
-        <v>135677</v>
+        <v>166595</v>
       </c>
       <c r="C178" t="s">
         <v>1182</v>
@@ -17290,7 +17290,7 @@
         <v>4775</v>
       </c>
       <c r="B182" t="n">
-        <v>135678</v>
+        <v>166596</v>
       </c>
       <c r="C182" t="s">
         <v>1210</v>
@@ -17432,7 +17432,7 @@
         <v>4775</v>
       </c>
       <c r="B184" t="n">
-        <v>135679</v>
+        <v>166597</v>
       </c>
       <c r="C184" t="s">
         <v>1224</v>
@@ -17503,7 +17503,7 @@
         <v>4775</v>
       </c>
       <c r="B185" t="n">
-        <v>135680</v>
+        <v>166598</v>
       </c>
       <c r="C185" t="s">
         <v>1230</v>
@@ -17649,7 +17649,7 @@
         <v>4775</v>
       </c>
       <c r="B187" t="n">
-        <v>135681</v>
+        <v>166599</v>
       </c>
       <c r="C187" t="s">
         <v>1247</v>
@@ -17791,7 +17791,7 @@
         <v>4775</v>
       </c>
       <c r="B189" t="n">
-        <v>135682</v>
+        <v>166600</v>
       </c>
       <c r="C189" t="s">
         <v>1261</v>
@@ -17923,7 +17923,7 @@
         <v>4775</v>
       </c>
       <c r="B191" t="n">
-        <v>135683</v>
+        <v>166601</v>
       </c>
       <c r="C191" t="s">
         <v>1274</v>
@@ -18136,7 +18136,7 @@
         <v>4775</v>
       </c>
       <c r="B194" t="n">
-        <v>135684</v>
+        <v>166602</v>
       </c>
       <c r="C194" t="s">
         <v>1294</v>
@@ -18207,7 +18207,7 @@
         <v>4775</v>
       </c>
       <c r="B195" t="n">
-        <v>135685</v>
+        <v>166603</v>
       </c>
       <c r="C195" t="s">
         <v>1300</v>
@@ -18349,7 +18349,7 @@
         <v>4775</v>
       </c>
       <c r="B197" t="n">
-        <v>135686</v>
+        <v>166604</v>
       </c>
       <c r="C197" t="s">
         <v>1313</v>
@@ -18420,7 +18420,7 @@
         <v>4775</v>
       </c>
       <c r="B198" t="n">
-        <v>135687</v>
+        <v>166605</v>
       </c>
       <c r="C198" t="s">
         <v>1321</v>
@@ -18491,7 +18491,7 @@
         <v>4775</v>
       </c>
       <c r="B199" t="n">
-        <v>135688</v>
+        <v>166606</v>
       </c>
       <c r="C199" t="s">
         <v>1328</v>
@@ -18562,7 +18562,7 @@
         <v>4775</v>
       </c>
       <c r="B200" t="n">
-        <v>135689</v>
+        <v>166607</v>
       </c>
       <c r="C200" t="s">
         <v>1335</v>
@@ -18629,7 +18629,7 @@
         <v>4775</v>
       </c>
       <c r="B201" t="n">
-        <v>135690</v>
+        <v>166608</v>
       </c>
       <c r="C201" t="s">
         <v>1342</v>
@@ -18698,7 +18698,7 @@
         <v>4775</v>
       </c>
       <c r="B202" t="n">
-        <v>135691</v>
+        <v>166609</v>
       </c>
       <c r="C202" t="s">
         <v>1349</v>
@@ -18769,7 +18769,7 @@
         <v>4775</v>
       </c>
       <c r="B203" t="n">
-        <v>135692</v>
+        <v>166610</v>
       </c>
       <c r="C203" t="s">
         <v>1356</v>
@@ -18840,7 +18840,7 @@
         <v>4775</v>
       </c>
       <c r="B204" t="n">
-        <v>135693</v>
+        <v>166611</v>
       </c>
       <c r="C204" t="s">
         <v>1363</v>
@@ -18907,7 +18907,7 @@
         <v>4775</v>
       </c>
       <c r="B205" t="n">
-        <v>135694</v>
+        <v>166612</v>
       </c>
       <c r="C205" t="s">
         <v>1371</v>
@@ -18974,7 +18974,7 @@
         <v>4775</v>
       </c>
       <c r="B206" t="n">
-        <v>135695</v>
+        <v>166613</v>
       </c>
       <c r="C206" t="s">
         <v>1378</v>
@@ -19041,7 +19041,7 @@
         <v>4775</v>
       </c>
       <c r="B207" t="n">
-        <v>135696</v>
+        <v>166614</v>
       </c>
       <c r="C207" t="s">
         <v>1385</v>
@@ -19112,7 +19112,7 @@
         <v>4775</v>
       </c>
       <c r="B208" t="n">
-        <v>135697</v>
+        <v>166615</v>
       </c>
       <c r="C208" t="s">
         <v>1393</v>
@@ -19183,7 +19183,7 @@
         <v>4775</v>
       </c>
       <c r="B209" t="n">
-        <v>135698</v>
+        <v>166616</v>
       </c>
       <c r="C209" t="s">
         <v>1401</v>
@@ -19254,7 +19254,7 @@
         <v>4775</v>
       </c>
       <c r="B210" t="n">
-        <v>135699</v>
+        <v>166617</v>
       </c>
       <c r="C210" t="s">
         <v>1408</v>
@@ -19325,7 +19325,7 @@
         <v>4775</v>
       </c>
       <c r="B211" t="n">
-        <v>135700</v>
+        <v>166618</v>
       </c>
       <c r="C211" t="s">
         <v>1416</v>
@@ -19396,7 +19396,7 @@
         <v>4775</v>
       </c>
       <c r="B212" t="n">
-        <v>135701</v>
+        <v>166619</v>
       </c>
       <c r="C212" t="s">
         <v>1424</v>
@@ -19461,7 +19461,7 @@
         <v>4775</v>
       </c>
       <c r="B213" t="n">
-        <v>135702</v>
+        <v>166620</v>
       </c>
       <c r="C213" t="s">
         <v>1430</v>
